--- a/OnBoard/output/trust/catch_sample/Catch_sample_Trust_5.xlsx
+++ b/OnBoard/output/trust/catch_sample/Catch_sample_Trust_5.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F26">
@@ -1484,92 +1484,6 @@
         </is>
       </c>
       <c r="I26" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>PECTJAC</t>
-        </is>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>-1</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>SIMRANDO</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>-1</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>SIMRANDO</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
